--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed1/result_data_KNN.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.172</v>
+        <v>-12.421</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.276</v>
+        <v>-11.843</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -553,10 +553,10 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.816</v>
+        <v>-12.793</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.694000000000001</v>
+        <v>-7.673999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.838</v>
+        <v>-12.839</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.228</v>
+        <v>-7.337999999999999</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -641,10 +641,10 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.37</v>
+        <v>-7.587999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>17.952</v>
+        <v>17.491</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.56</v>
+        <v>16.366</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.162</v>
+        <v>16.854</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.1</v>
+        <v>-8.392999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -706,13 +706,13 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.856</v>
+        <v>-12.808</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.626</v>
+        <v>16.706</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.258</v>
+        <v>16.638</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.626</v>
+        <v>-12.241</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.262</v>
+        <v>-7.994</v>
       </c>
       <c r="E20" t="n">
-        <v>16.75</v>
+        <v>16.696</v>
       </c>
     </row>
     <row r="21">
@@ -791,10 +791,10 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.442</v>
+        <v>-12.428</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.044</v>
+        <v>-8.196999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,10 +811,10 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.802000000000001</v>
+        <v>-7.536000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>16.992</v>
+        <v>16.998</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.956</v>
+        <v>-7.997</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.472</v>
+        <v>-12.848</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,10 +927,10 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.466</v>
+        <v>-12.438</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.316</v>
+        <v>-7.416000000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-11.816</v>
+        <v>-12.559</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.85</v>
+        <v>-12.471</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.888</v>
+        <v>-7.936999999999999</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>17.184</v>
+        <v>16.801</v>
       </c>
     </row>
     <row r="37">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.212</v>
+        <v>-12.119</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.052000000000001</v>
+        <v>-8.18</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,10 +1168,10 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.842000000000001</v>
+        <v>-7.972999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>17.054</v>
+        <v>17.028</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.673999999999999</v>
+        <v>-7.580999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.056</v>
+        <v>-7.517</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,13 +1216,13 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.332</v>
+        <v>-13.322</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.276</v>
+        <v>-8.139999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>16.764</v>
+        <v>16.889</v>
       </c>
     </row>
     <row r="47">
@@ -1287,10 +1287,10 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.173999999999999</v>
+        <v>-8.312999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.764</v>
+        <v>16.688</v>
       </c>
     </row>
     <row r="51">
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.82</v>
+        <v>-12.199</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.254</v>
+        <v>-7.598999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.322</v>
+        <v>-11.614</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,10 +1403,10 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.222</v>
+        <v>-13.329</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.545999999999999</v>
+        <v>-8.228999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.458</v>
+        <v>-12.244</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.034</v>
+        <v>-13.737</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.664</v>
+        <v>-7.556999999999999</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1556,10 +1556,10 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-12.058</v>
+        <v>-11.36</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.63</v>
+        <v>-7.683000000000002</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.895999999999999</v>
+        <v>-6.82</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.876</v>
+        <v>-12.52</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.092</v>
+        <v>-11.866</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.70200000000001</v>
+        <v>16.995</v>
       </c>
     </row>
     <row r="77">
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.294</v>
+        <v>-12.54</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-8.002000000000001</v>
+        <v>-7.728</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.866000000000001</v>
+        <v>-8.453000000000001</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.918000000000001</v>
+        <v>-8.068000000000001</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1998,10 +1998,10 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.632</v>
+        <v>-11.604</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.512</v>
+        <v>-6.728</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.962</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.609999999999999</v>
+        <v>-8.486000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>16.126</v>
+        <v>16.422</v>
       </c>
     </row>
     <row r="98">
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>17.3</v>
+        <v>16.786</v>
       </c>
     </row>
     <row r="100">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.238</v>
+        <v>-12.623</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
